--- a/Assets/SO/Text/Text.xlsx
+++ b/Assets/SO/Text/Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWorkspace\RobotShooting\Assets\SO\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D589F4B3-715C-429C-8F94-2405261A88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB709CA3-FC09-4A54-91B5-89955B064033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29025" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="277">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +562,313 @@
   </si>
   <si>
     <t>아이템51</t>
+  </si>
+  <si>
+    <t>itemScript_1</t>
+  </si>
+  <si>
+    <t>itemScript_2</t>
+  </si>
+  <si>
+    <t>itemScript_3</t>
+  </si>
+  <si>
+    <t>itemScript_4</t>
+  </si>
+  <si>
+    <t>itemScript_5</t>
+  </si>
+  <si>
+    <t>itemScript_6</t>
+  </si>
+  <si>
+    <t>itemScript_7</t>
+  </si>
+  <si>
+    <t>itemScript_8</t>
+  </si>
+  <si>
+    <t>itemScript_9</t>
+  </si>
+  <si>
+    <t>itemScript_10</t>
+  </si>
+  <si>
+    <t>itemScript_11</t>
+  </si>
+  <si>
+    <t>itemScript_12</t>
+  </si>
+  <si>
+    <t>itemScript_13</t>
+  </si>
+  <si>
+    <t>itemScript_14</t>
+  </si>
+  <si>
+    <t>itemScript_15</t>
+  </si>
+  <si>
+    <t>itemScript_16</t>
+  </si>
+  <si>
+    <t>itemScript_17</t>
+  </si>
+  <si>
+    <t>itemScript_18</t>
+  </si>
+  <si>
+    <t>itemScript_19</t>
+  </si>
+  <si>
+    <t>itemScript_20</t>
+  </si>
+  <si>
+    <t>itemScript_21</t>
+  </si>
+  <si>
+    <t>itemScript_22</t>
+  </si>
+  <si>
+    <t>itemScript_23</t>
+  </si>
+  <si>
+    <t>itemScript_24</t>
+  </si>
+  <si>
+    <t>itemScript_25</t>
+  </si>
+  <si>
+    <t>itemScript_26</t>
+  </si>
+  <si>
+    <t>itemScript_27</t>
+  </si>
+  <si>
+    <t>itemScript_28</t>
+  </si>
+  <si>
+    <t>itemScript_29</t>
+  </si>
+  <si>
+    <t>itemScript_30</t>
+  </si>
+  <si>
+    <t>itemScript_31</t>
+  </si>
+  <si>
+    <t>itemScript_32</t>
+  </si>
+  <si>
+    <t>itemScript_33</t>
+  </si>
+  <si>
+    <t>itemScript_34</t>
+  </si>
+  <si>
+    <t>itemScript_35</t>
+  </si>
+  <si>
+    <t>itemScript_36</t>
+  </si>
+  <si>
+    <t>itemScript_37</t>
+  </si>
+  <si>
+    <t>itemScript_38</t>
+  </si>
+  <si>
+    <t>itemScript_39</t>
+  </si>
+  <si>
+    <t>itemScript_40</t>
+  </si>
+  <si>
+    <t>itemScript_41</t>
+  </si>
+  <si>
+    <t>itemScript_42</t>
+  </si>
+  <si>
+    <t>itemScript_43</t>
+  </si>
+  <si>
+    <t>itemScript_44</t>
+  </si>
+  <si>
+    <t>itemScript_45</t>
+  </si>
+  <si>
+    <t>itemScript_46</t>
+  </si>
+  <si>
+    <t>itemScript_47</t>
+  </si>
+  <si>
+    <t>itemScript_48</t>
+  </si>
+  <si>
+    <t>itemScript_49</t>
+  </si>
+  <si>
+    <t>itemScript_50</t>
+  </si>
+  <si>
+    <t>itemScript_51</t>
+  </si>
+  <si>
+    <t>아이템 설명 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명 2</t>
+  </si>
+  <si>
+    <t>아이템 설명 3</t>
+  </si>
+  <si>
+    <t>아이템 설명 4</t>
+  </si>
+  <si>
+    <t>아이템 설명 5</t>
+  </si>
+  <si>
+    <t>아이템 설명 6</t>
+  </si>
+  <si>
+    <t>아이템 설명 7</t>
+  </si>
+  <si>
+    <t>아이템 설명 8</t>
+  </si>
+  <si>
+    <t>아이템 설명 9</t>
+  </si>
+  <si>
+    <t>아이템 설명 10</t>
+  </si>
+  <si>
+    <t>아이템 설명 11</t>
+  </si>
+  <si>
+    <t>아이템 설명 12</t>
+  </si>
+  <si>
+    <t>아이템 설명 13</t>
+  </si>
+  <si>
+    <t>아이템 설명 14</t>
+  </si>
+  <si>
+    <t>아이템 설명 15</t>
+  </si>
+  <si>
+    <t>아이템 설명 16</t>
+  </si>
+  <si>
+    <t>아이템 설명 17</t>
+  </si>
+  <si>
+    <t>아이템 설명 18</t>
+  </si>
+  <si>
+    <t>아이템 설명 19</t>
+  </si>
+  <si>
+    <t>아이템 설명 20</t>
+  </si>
+  <si>
+    <t>아이템 설명 21</t>
+  </si>
+  <si>
+    <t>아이템 설명 22</t>
+  </si>
+  <si>
+    <t>아이템 설명 23</t>
+  </si>
+  <si>
+    <t>아이템 설명 24</t>
+  </si>
+  <si>
+    <t>아이템 설명 25</t>
+  </si>
+  <si>
+    <t>아이템 설명 26</t>
+  </si>
+  <si>
+    <t>아이템 설명 27</t>
+  </si>
+  <si>
+    <t>아이템 설명 28</t>
+  </si>
+  <si>
+    <t>아이템 설명 29</t>
+  </si>
+  <si>
+    <t>아이템 설명 30</t>
+  </si>
+  <si>
+    <t>아이템 설명 31</t>
+  </si>
+  <si>
+    <t>아이템 설명 32</t>
+  </si>
+  <si>
+    <t>아이템 설명 33</t>
+  </si>
+  <si>
+    <t>아이템 설명 34</t>
+  </si>
+  <si>
+    <t>아이템 설명 35</t>
+  </si>
+  <si>
+    <t>아이템 설명 36</t>
+  </si>
+  <si>
+    <t>아이템 설명 37</t>
+  </si>
+  <si>
+    <t>아이템 설명 38</t>
+  </si>
+  <si>
+    <t>아이템 설명 39</t>
+  </si>
+  <si>
+    <t>아이템 설명 40</t>
+  </si>
+  <si>
+    <t>아이템 설명 41</t>
+  </si>
+  <si>
+    <t>아이템 설명 42</t>
+  </si>
+  <si>
+    <t>아이템 설명 43</t>
+  </si>
+  <si>
+    <t>아이템 설명 44</t>
+  </si>
+  <si>
+    <t>아이템 설명 45</t>
+  </si>
+  <si>
+    <t>아이템 설명 46</t>
+  </si>
+  <si>
+    <t>아이템 설명 47</t>
+  </si>
+  <si>
+    <t>아이템 설명 48</t>
+  </si>
+  <si>
+    <t>아이템 설명 49</t>
+  </si>
+  <si>
+    <t>아이템 설명 50</t>
+  </si>
+  <si>
+    <t>아이템 설명 51</t>
   </si>
 </sst>
 </file>
@@ -886,16 +1193,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2358,6 +2665,873 @@
       </c>
       <c r="E86" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" t="s">
+        <v>254</v>
+      </c>
+      <c r="E115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" t="s">
+        <v>257</v>
+      </c>
+      <c r="D118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D120" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" t="s">
+        <v>261</v>
+      </c>
+      <c r="D122" t="s">
+        <v>261</v>
+      </c>
+      <c r="E122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>213</v>
+      </c>
+      <c r="B125" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" t="s">
+        <v>265</v>
+      </c>
+      <c r="E126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>217</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>225</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" t="s">
+        <v>276</v>
+      </c>
+      <c r="E137" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SO/Text/Text.xlsx
+++ b/Assets/SO/Text/Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWorkspace\RobotShooting\Assets\SO\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB709CA3-FC09-4A54-91B5-89955B064033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67228C8F-08B2-440F-965E-B6E4115C1306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="287">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,6 +869,46 @@
   </si>
   <si>
     <t>아이템 설명 51</t>
+  </si>
+  <si>
+    <t>option_bgSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_fxSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_producer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작자/야빔/배고픈 수선화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1193,16 +1233,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,6 +3572,91 @@
       </c>
       <c r="E137" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" t="s">
+        <v>281</v>
+      </c>
+      <c r="D138" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139" t="s">
+        <v>282</v>
+      </c>
+      <c r="E139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s">
+        <v>283</v>
+      </c>
+      <c r="D140" t="s">
+        <v>283</v>
+      </c>
+      <c r="E140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+      <c r="D141" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" t="s">
+        <v>286</v>
+      </c>
+      <c r="E142" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SO/Text/Text.xlsx
+++ b/Assets/SO/Text/Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWorkspace\RobotShooting\Assets\SO\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67228C8F-08B2-440F-965E-B6E4115C1306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B743E9A-F9F0-4C9C-926F-E9D339077AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="290">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -908,6 +908,16 @@
   </si>
   <si>
     <t>전투 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabToScreen</t>
+  </si>
+  <si>
+    <t>- Tab To Screen -</t>
+  </si>
+  <si>
+    <t>- 클릭 후 게임시작 -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,8 +961,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1233,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3659,6 +3670,23 @@
         <v>286</v>
       </c>
     </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>288</v>
+      </c>
+      <c r="D143" t="s">
+        <v>288</v>
+      </c>
+      <c r="E143" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
